--- a/assets/excel/data_pc.xlsx
+++ b/assets/excel/data_pc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>Devices</t>
   </si>
@@ -74,22 +74,295 @@
     <t>Laptop</t>
   </si>
   <si>
-    <t>Asusx</t>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Macbook Pro</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month</t>
+  </si>
+  <si>
+    <t>KSL-001</t>
+  </si>
+  <si>
+    <t>Tata Arpandi</t>
+  </si>
+  <si>
+    <t>Kemana Jakarta</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Inspiron 14 3000 Series</t>
+  </si>
+  <si>
+    <t>KSL-002</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>Satellite C800-1024</t>
+  </si>
+  <si>
+    <t>KSL-002a</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>A450CA-WX104D</t>
+  </si>
+  <si>
+    <t>KSL-003</t>
+  </si>
+  <si>
+    <t>A46CB-WX025D</t>
+  </si>
+  <si>
+    <t>KSL-004</t>
+  </si>
+  <si>
+    <t>Herwandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X455LA-WX081D</t>
+  </si>
+  <si>
+    <t>KSL-004a</t>
+  </si>
+  <si>
+    <t>Budi Hriyana</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>G450</t>
+  </si>
+  <si>
+    <t>KSL-005</t>
+  </si>
+  <si>
+    <t>Macbook Pro A1278</t>
+  </si>
+  <si>
+    <t>KSL-006</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>LifeBook L Series LH532</t>
+  </si>
+  <si>
+    <t>KSL-007</t>
+  </si>
+  <si>
+    <t>Didiet Nur Cahyanto</t>
+  </si>
+  <si>
+    <t>KSL-008</t>
+  </si>
+  <si>
+    <t>Irman Pambudi</t>
+  </si>
+  <si>
+    <t>KSL-009</t>
+  </si>
+  <si>
+    <t>Ansyori B</t>
+  </si>
+  <si>
+    <t>Kemana Bandung</t>
+  </si>
+  <si>
+    <t>KSL-010</t>
+  </si>
+  <si>
+    <t>Edi Suryadi</t>
+  </si>
+  <si>
+    <t>KSL-011</t>
+  </si>
+  <si>
+    <t>KSL-012</t>
+  </si>
+  <si>
+    <t>Inspiron 3442</t>
+  </si>
+  <si>
+    <t>KSL-013</t>
+  </si>
+  <si>
+    <t>Romauli Oktohana</t>
+  </si>
+  <si>
+    <t>X455LA-WX669D</t>
+  </si>
+  <si>
+    <t>KSL-014</t>
+  </si>
+  <si>
+    <t>Imam Kusuma</t>
+  </si>
+  <si>
+    <t>KSL-015</t>
+  </si>
+  <si>
+    <t>Saiful Fahamsyah</t>
+  </si>
+  <si>
+    <t>A450C</t>
+  </si>
+  <si>
+    <t>KSL-016</t>
+  </si>
+  <si>
+    <t>X450CA-WX242D</t>
+  </si>
+  <si>
+    <t>KSL-017</t>
+  </si>
+  <si>
+    <t>KSL-020</t>
+  </si>
+  <si>
+    <t>Fajar Indra</t>
+  </si>
+  <si>
+    <t>X451CA-VX126D</t>
+  </si>
+  <si>
+    <t>KSL-022</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Aspire E5-471G</t>
+  </si>
+  <si>
+    <t>KSL-023</t>
+  </si>
+  <si>
+    <t>Ryan Permana</t>
+  </si>
+  <si>
+    <t>X555L</t>
+  </si>
+  <si>
+    <t>KSL-025</t>
+  </si>
+  <si>
+    <t>Norisa Rorah</t>
+  </si>
+  <si>
+    <t>KSL-026</t>
+  </si>
+  <si>
+    <t>Ratu Dita</t>
+  </si>
+  <si>
+    <t>KSL-027</t>
+  </si>
+  <si>
+    <t>Anan Fauzi</t>
+  </si>
+  <si>
+    <t>A456U</t>
+  </si>
+  <si>
+    <t>KSL-028</t>
+  </si>
+  <si>
+    <t>X456UF</t>
+  </si>
+  <si>
+    <t>KSL-029</t>
+  </si>
+  <si>
+    <t>Didi Kusnadi</t>
+  </si>
+  <si>
+    <t>KSL-030</t>
+  </si>
+  <si>
+    <t>X455LJ</t>
+  </si>
+  <si>
+    <t>KSL-031</t>
+  </si>
+  <si>
+    <t>Pendi</t>
   </si>
   <si>
     <t>A455L</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>2017-03-06</t>
-  </si>
-  <si>
-    <t>48 Month</t>
-  </si>
-  <si>
-    <t>hello cuy</t>
+    <t>KSL-032</t>
+  </si>
+  <si>
+    <t>Mahardhika Putra Sulistyo</t>
+  </si>
+  <si>
+    <t>KSL-033</t>
+  </si>
+  <si>
+    <t>Shinta Octavia</t>
+  </si>
+  <si>
+    <t>X450CA</t>
+  </si>
+  <si>
+    <t>KSL-034</t>
+  </si>
+  <si>
+    <t>Kevin Gosal</t>
+  </si>
+  <si>
+    <t>X540L</t>
+  </si>
+  <si>
+    <t>KSL-035</t>
+  </si>
+  <si>
+    <t>Sonny Ariestiawan</t>
+  </si>
+  <si>
+    <t>KSL-036</t>
+  </si>
+  <si>
+    <t>Hafizh Fathir Firdaus</t>
+  </si>
+  <si>
+    <t>KSL-037</t>
+  </si>
+  <si>
+    <t>Bobby Brillian Yerikho</t>
+  </si>
+  <si>
+    <t>KSL-038</t>
+  </si>
+  <si>
+    <t>Rizal Fauzie Ridwan</t>
+  </si>
+  <si>
+    <t>KSL-039</t>
+  </si>
+  <si>
+    <t>Syahfitria Syarifuddin</t>
   </si>
   <si>
     <t>KSL-040</t>
@@ -98,82 +371,76 @@
     <t>Firman Alhadiansyah</t>
   </si>
   <si>
-    <t>Bandung Office</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>2017-08-08</t>
-  </si>
-  <si>
-    <t>1 Month</t>
-  </si>
-  <si>
-    <t>alus euy</t>
-  </si>
-  <si>
-    <t>KSL-038</t>
-  </si>
-  <si>
-    <t>Ujang</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Duka</t>
-  </si>
-  <si>
-    <t>Teu terang</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>6 Month</t>
-  </si>
-  <si>
-    <t>Test Form 1</t>
-  </si>
-  <si>
-    <t>Jakarta Office</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>TESTX</t>
-  </si>
-  <si>
-    <t>Hello22</t>
-  </si>
-  <si>
-    <t>2017-09-13</t>
-  </si>
-  <si>
-    <t>24 Month</t>
-  </si>
-  <si>
-    <t>sdafsadfasf</t>
-  </si>
-  <si>
-    <t>TEST-002</t>
-  </si>
-  <si>
-    <t>Udin Cihuahua</t>
-  </si>
-  <si>
-    <t>In Service</t>
+    <t>KSL-041</t>
+  </si>
+  <si>
+    <t>Taupik Otto Ismail</t>
+  </si>
+  <si>
+    <t>KSL-042</t>
+  </si>
+  <si>
+    <t>Amy Amadea</t>
+  </si>
+  <si>
+    <t>KSL-043</t>
+  </si>
+  <si>
+    <t>Ashadi Muliawan</t>
+  </si>
+  <si>
+    <t>KSL-043a</t>
+  </si>
+  <si>
+    <t>Gen Gen Fikri Adam</t>
+  </si>
+  <si>
+    <t>KSL-044</t>
+  </si>
+  <si>
+    <t>Kurniawan</t>
+  </si>
+  <si>
+    <t>KSL-049</t>
+  </si>
+  <si>
+    <t>Hernady Latip</t>
+  </si>
+  <si>
+    <t>KSL-050</t>
+  </si>
+  <si>
+    <t>Kamaludin</t>
+  </si>
+  <si>
+    <t>KSL-051</t>
+  </si>
+  <si>
+    <t>Muttaqiin</t>
+  </si>
+  <si>
+    <t>KSL-052</t>
+  </si>
+  <si>
+    <t>Sapta Sanjaya</t>
+  </si>
+  <si>
+    <t>KSL-053</t>
+  </si>
+  <si>
+    <t>Cipto Raharjo</t>
+  </si>
+  <si>
+    <t>KSL-054</t>
+  </si>
+  <si>
+    <t>Henry Wongkar</t>
+  </si>
+  <si>
+    <t>KSL-055</t>
+  </si>
+  <si>
+    <t>Simon Petrus</t>
   </si>
 </sst>
 </file>
@@ -512,7 +779,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,50 +853,35 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -637,55 +889,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -693,35 +927,29 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -729,7 +957,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -737,55 +965,1842 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>520000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>36</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" t="s">
+        <v>137</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
